--- a/database/3박자_공통코드.xlsx
+++ b/database/3박자_공통코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김진섭\Desktop\19-1학기\캡스톤디자인\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906BE59-1840-4417-A295-489E05816432}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35CF71-04C0-4423-B41C-A409B6569B10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>대코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
     <t>002005</t>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,9 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>003002</t>
-  </si>
-  <si>
     <t>004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,6 +290,14 @@
   </si>
   <si>
     <t>동아리속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,6 +836,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,75 +930,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,7 +1249,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,11 +1264,11 @@
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -1290,17 +1287,17 @@
         <v>3</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="58" t="s">
-        <v>22</v>
+      <c r="C4" s="38" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -1308,31 +1305,31 @@
       <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>41</v>
+      <c r="F4" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="43"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>73</v>
+      <c r="C6" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>10</v>
@@ -1340,299 +1337,297 @@
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>42</v>
+      <c r="F6" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="50"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="51"/>
+        <v>65</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="9" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="51"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="28"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>44</v>
+      <c r="F14" s="50" t="s">
+        <v>41</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="F15" s="51"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="52"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>34</v>
+      <c r="B17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>31</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>42</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>33</v>
+      </c>
+      <c r="F18" s="51"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="F19" s="51"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="29"/>
+        <v>68</v>
+      </c>
+      <c r="F20" s="52"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="F21" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="33"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="52" t="s">
+      <c r="F22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="46" t="s">
+      <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="F23" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="7" t="s">
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="33"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="50"/>
-    </row>
-    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28"/>
@@ -1656,28 +1651,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/3박자_공통코드.xlsx
+++ b/database/3박자_공통코드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김진섭\Desktop\19-1학기\캡스톤디자인\프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E35CF71-04C0-4423-B41C-A409B6569B10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4161D8A1-AF62-4DC1-B452-BEB9828E7A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>대코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,26 @@
   </si>
   <si>
     <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOIN_CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,33 +856,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -872,64 +952,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1246,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1264,11 +1317,11 @@
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
@@ -1293,10 +1346,10 @@
     </row>
     <row r="4" spans="1:7" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1305,30 +1358,30 @@
       <c r="E4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="54" t="s">
         <v>38</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="41" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1337,80 +1390,80 @@
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="44" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="30"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="40"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="40"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="24" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="41" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1419,30 +1472,30 @@
       <c r="E12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="44" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="35" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1451,43 +1504,43 @@
       <c r="E14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="32" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="51"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="35" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1496,55 +1549,55 @@
       <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="32" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="54"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="51"/>
+      <c r="F18" s="33"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="17" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="41" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -1553,26 +1606,26 @@
       <c r="E21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="42"/>
+      <c r="F22" s="48"/>
     </row>
     <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="41" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="16" t="s">
@@ -1581,81 +1634,121 @@
       <c r="E23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="44" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="30"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="30"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="30"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="17" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="D32"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="67"/>
+      <c r="C28" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="68"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="69"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="28">
+        <v>3</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="2:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C20"/>
+  <mergeCells count="25">
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="F23:F27"/>
@@ -1665,14 +1758,15 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C20"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
